--- a/Имена.xlsx
+++ b/Имена.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Morra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Doc\!My\Havish\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6216" yWindow="0" windowWidth="22152" windowHeight="9972"/>
+    <workbookView xWindow="7152" yWindow="0" windowWidth="22152" windowHeight="9972"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="286">
   <si>
     <t>Kreson</t>
   </si>
@@ -878,6 +878,12 @@
   </si>
   <si>
     <t>Кинстарк</t>
+  </si>
+  <si>
+    <t>Ethereal Scrying</t>
+  </si>
+  <si>
+    <t>Эзериал Скраинг</t>
   </si>
 </sst>
 </file>
@@ -1196,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2144,6 +2150,14 @@
       </c>
       <c r="B116" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>284</v>
+      </c>
+      <c r="B117" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
